--- a/sdss_companion_photometry_DR12.xlsx
+++ b/sdss_companion_photometry_DR12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\environment_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C103D0C6-5225-4CD8-918F-ED7153D1E211}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F54B8-9001-4FDC-A11E-5D47051E5FF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6072" tabRatio="190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4982" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="806">
   <si>
     <t>specobjid</t>
   </si>
@@ -2401,9 +2401,6 @@
   </si>
   <si>
     <t>GALEX J222411.4+001339</t>
-  </si>
-  <si>
-    <t>GALEX J222310.2-002634</t>
   </si>
   <si>
     <t>GALEX J230443.9-084210</t>
@@ -2544,8 +2541,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2561,7 +2558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="91440" y="91440"/>
-          <a:ext cx="8694420" cy="10119360"/>
+          <a:ext cx="8694420" cy="10949940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2963,7 +2960,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>GALEX Photometry</a:t>
+            <a:t>GALEX (GR6/GR7) Photometry</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -2992,6 +2989,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>With additional information here:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>http://www.galex.caltech.edu/researcher/files/mcat_columns_long.txt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
         <a:p>
@@ -3001,7 +3010,13 @@
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -3363,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49606804-99BF-40AA-BBF7-626E74CB145B}">
-  <dimension ref="A1:CC287"/>
+  <dimension ref="A1:CB287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="CD6" sqref="CD6"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="CC5" sqref="CC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3446,7 +3461,7 @@
     <col min="80" max="80" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -3688,7 +3703,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -3930,7 +3945,7 @@
         <v>3.042547E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -4172,7 +4187,7 @@
         <v>2.995254E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -4414,7 +4429,7 @@
         <v>3.1585790000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -4656,7 +4671,7 @@
         <v>3.200476E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -4898,11 +4913,11 @@
         <v>3.2905759999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
       <c r="AU7" s="6"/>
       <c r="BN7" s="4"/>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5143,9 +5158,8 @@
       <c r="CB8" s="1">
         <v>3.2616800000000001E-2</v>
       </c>
-      <c r="CC8" s="4"/>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -5387,7 +5401,7 @@
         <v>3.2363299999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -5629,7 +5643,7 @@
         <v>3.177344E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -5871,7 +5885,7 @@
         <v>3.1652649999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -6113,7 +6127,7 @@
         <v>3.1922199999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6355,7 +6369,7 @@
         <v>3.1936720000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -6597,7 +6611,7 @@
         <v>3.1758389999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -6839,7 +6853,7 @@
         <v>3.1811199999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -37015,50 +37029,50 @@
       <c r="BM142" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BN142" s="4">
-        <v>3.7849611639843799E+18</v>
-      </c>
-      <c r="BO142">
-        <v>5.2830881457235801</v>
-      </c>
-      <c r="BP142" t="s">
-        <v>684</v>
-      </c>
-      <c r="BQ142">
-        <v>31.5436504678501</v>
-      </c>
-      <c r="BR142">
-        <v>-0.12969405098237499</v>
-      </c>
-      <c r="BS142">
-        <v>3</v>
-      </c>
-      <c r="BT142">
-        <v>18.634139999999999</v>
-      </c>
-      <c r="BU142">
-        <v>1.8536440000000001E-2</v>
-      </c>
-      <c r="BV142">
-        <v>58.58728</v>
-      </c>
-      <c r="BW142">
-        <v>1</v>
-      </c>
-      <c r="BX142">
-        <v>18.147659999999998</v>
-      </c>
-      <c r="BY142">
-        <v>9.9995989999999996E-3</v>
-      </c>
-      <c r="BZ142">
-        <v>108.60429999999999</v>
-      </c>
-      <c r="CA142">
-        <v>1</v>
-      </c>
-      <c r="CB142" s="1">
-        <v>2.864887E-2</v>
+      <c r="BN142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB142" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:80" x14ac:dyDescent="0.3">
@@ -38225,50 +38239,50 @@
       <c r="BM147" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BN147" s="4">
-        <v>3.7849611639843702E+18</v>
-      </c>
-      <c r="BO147">
-        <v>5.2668478236976597</v>
-      </c>
-      <c r="BP147" t="s">
-        <v>688</v>
-      </c>
-      <c r="BQ147">
-        <v>31.719932703244201</v>
-      </c>
-      <c r="BR147">
-        <v>-0.51769763149077197</v>
-      </c>
-      <c r="BS147">
-        <v>3</v>
-      </c>
-      <c r="BT147">
-        <v>17.534379999999999</v>
-      </c>
-      <c r="BU147">
-        <v>1.129607E-2</v>
-      </c>
-      <c r="BV147">
-        <v>96.139600000000002</v>
-      </c>
-      <c r="BW147">
-        <v>1</v>
-      </c>
-      <c r="BX147">
-        <v>17.15813</v>
-      </c>
-      <c r="BY147">
-        <v>6.1230039999999996E-3</v>
-      </c>
-      <c r="BZ147">
-        <v>177.3639</v>
-      </c>
-      <c r="CA147">
-        <v>1</v>
-      </c>
-      <c r="CB147" s="1">
-        <v>3.3914710000000001E-2</v>
+      <c r="BN147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB147" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:80" x14ac:dyDescent="0.3">
@@ -64596,50 +64610,50 @@
       <c r="BM267" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BN267" s="4">
-        <v>2.4711415258131999E+18</v>
-      </c>
-      <c r="BO267">
-        <v>5.0229084926670602</v>
-      </c>
-      <c r="BP267" t="s">
-        <v>790</v>
-      </c>
-      <c r="BQ267">
-        <v>335.79278588314003</v>
-      </c>
-      <c r="BR267">
-        <v>-0.44290727387247802</v>
-      </c>
-      <c r="BS267">
-        <v>1</v>
-      </c>
-      <c r="BT267">
-        <v>-999</v>
-      </c>
-      <c r="BU267">
-        <v>-999</v>
-      </c>
-      <c r="BV267">
-        <v>-999</v>
-      </c>
-      <c r="BW267">
-        <v>-2</v>
-      </c>
-      <c r="BX267">
-        <v>23.1615</v>
-      </c>
-      <c r="BY267">
-        <v>0.51355139999999999</v>
-      </c>
-      <c r="BZ267">
-        <v>2.1146859999999998</v>
-      </c>
-      <c r="CA267">
-        <v>0</v>
-      </c>
-      <c r="CB267" s="1">
-        <v>6.8051440000000005E-2</v>
+      <c r="BN267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB267" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:80" x14ac:dyDescent="0.3">
@@ -64848,7 +64862,7 @@
         <v>0.97632726163148398</v>
       </c>
       <c r="BP269" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="BQ269">
         <v>346.18325713567498</v>
@@ -65090,7 +65104,7 @@
         <v>0.27606557512577101</v>
       </c>
       <c r="BP270" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="BQ270">
         <v>346.16618209108202</v>
@@ -65332,7 +65346,7 @@
         <v>0.32917195782478098</v>
       </c>
       <c r="BP271" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="BQ271">
         <v>346.380878175698</v>
@@ -65574,7 +65588,7 @@
         <v>0.66867062956951395</v>
       </c>
       <c r="BP272" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="BQ272">
         <v>345.67329233452398</v>
@@ -65819,7 +65833,7 @@
         <v>0.94462929032766296</v>
       </c>
       <c r="BP274" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="BQ274">
         <v>33.622167156993598</v>
@@ -66061,7 +66075,7 @@
         <v>0.36687477176203798</v>
       </c>
       <c r="BP275" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="BQ275">
         <v>33.541001774118499</v>
@@ -66303,7 +66317,7 @@
         <v>1.56166831930537</v>
       </c>
       <c r="BP276" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="BQ276">
         <v>33.616804620215902</v>
@@ -66545,7 +66559,7 @@
         <v>0.72059429563420996</v>
       </c>
       <c r="BP277" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="BQ277">
         <v>33.460440239878601</v>
@@ -66787,7 +66801,7 @@
         <v>1.5296995576743599</v>
       </c>
       <c r="BP278" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="BQ278">
         <v>33.994082250438701</v>
@@ -67029,7 +67043,7 @@
         <v>0.114621388999976</v>
       </c>
       <c r="BP279" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="BQ279">
         <v>33.308960812484003</v>
@@ -67271,7 +67285,7 @@
         <v>0.57036048134157102</v>
       </c>
       <c r="BP280" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="BQ280">
         <v>33.883202177149698</v>
@@ -67513,7 +67527,7 @@
         <v>2.2748593095399898</v>
       </c>
       <c r="BP281" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="BQ281">
         <v>33.347747196425203</v>
@@ -67755,7 +67769,7 @@
         <v>4.6162406933862803E-2</v>
       </c>
       <c r="BP282" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="BQ282">
         <v>34.0554331068859</v>
@@ -68239,7 +68253,7 @@
         <v>2.6729100794941698</v>
       </c>
       <c r="BP284" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BQ284">
         <v>32.700694275975003</v>
@@ -68658,7 +68672,7 @@
         <v>0.840682219444016</v>
       </c>
       <c r="BP286" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="BQ286">
         <v>34.067104656154598</v>
@@ -68900,7 +68914,7 @@
         <v>1.4107353530762801</v>
       </c>
       <c r="BP287" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="BQ287">
         <v>34.647152564680503</v>
@@ -68949,8 +68963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB449904-EC7F-4FA6-BDDD-776BF8F95E07}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
